--- a/TestResults/StProvStdGraphQL.xlsx
+++ b/TestResults/StProvStdGraphQL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="59">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -65,7 +65,7 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 9, below are the test steps for this test case</t>
+    <t>Total number of records matching between DB &amp; Response: 15, below are the test steps for this test case</t>
   </si>
   <si>
     <t>Response_Geopl_ID:5695698121285912900
@@ -92,6 +92,46 @@
  Response_expirationDate:2025-06-30</t>
   </si>
   <si>
+    <t>Response_Geopl_ID:1240157658231021156
+ Response_OrgStdNm:TestOrg
+ Response_StProvCd:Test_SCD4
+ Response_stProvNm:Test_State_prov_Name4
+ Response_effectiveDate:2021-07-10
+ Response_expirationDate:9999-12-31</t>
+  </si>
+  <si>
+    <t>Response_Geopl_ID:1825799461276685722
+ Response_OrgStdNm:TestOrg
+ Response_StProvCd:Test_SC11
+ Response_stProvNm:Test_State_prov_Name12
+ Response_effectiveDate:2020-02-24
+ Response_expirationDate:2021-07-31</t>
+  </si>
+  <si>
+    <t>Response_Geopl_ID:5929151083080945960
+ Response_OrgStdNm:TestOrg
+ Response_StProvCd:Test_Sd15
+ Response_stProvNm:
+ Response_effectiveDate:2021-07-10
+ Response_expirationDate:2021-07-31</t>
+  </si>
+  <si>
+    <t>Response_Geopl_ID:7427054682715781649
+ Response_OrgStdNm:TestOrg
+ Response_StProvCd:Test1_Sv2
+ Response_stProvNm:Test1_State_prov_Nae2
+ Response_effectiveDate:2021-07-10
+ Response_expirationDate:2021-07-31</t>
+  </si>
+  <si>
+    <t>Response_Geopl_ID:2220422922253509707
+ Response_OrgStdNm:TestOrg
+ Response_StProvCd:Test_SCD3
+ Response_stProvNm:Test_State_prov_Name3
+ Response_effectiveDate:2020-02-24
+ Response_expirationDate:2021-07-31</t>
+  </si>
+  <si>
     <t>Response_Geopl_ID:8579466285974591534
  Response_OrgStdNm:TestOrg
  Response_StProvCd:TestSt2
@@ -124,20 +164,28 @@
  Response_expirationDate:2025-06-30</t>
   </si>
   <si>
-    <t>Response_Geopl_ID:1335743515602237021
+    <t>Response_Geopl_ID:2436305140765794966
  Response_OrgStdNm:TestOrg
- Response_StProvCd:Test1_StCD
- Response_stProvNm:Test1_State_prov_Name
+ Response_StProvCd:Test_SCe2
+ Response_stProvNm:
  Response_effectiveDate:2021-07-10
  Response_expirationDate:2021-07-31</t>
+  </si>
+  <si>
+    <t>Response_Geopl_ID:5758281390884395669
+ Response_OrgStdNm:TestOrg
+ Response_StProvCd:Test_SC12
+ Response_stProvNm:Test_State_prov_Name13
+ Response_effectiveDate:2021-07-10
+ Response_expirationDate:9999-12-31</t>
   </si>
   <si>
     <t>Response_Geopl_ID:7317162917942004948
  Response_OrgStdNm:TestOrg
  Response_StProvCd:Test_StCD
- Response_stProvNm:Test_State_prov_Name
+ Response_stProvNm:Test_State_prov_Name12
  Response_effectiveDate:2021-07-10
- Response_expirationDate:2021-07-31</t>
+ Response_expirationDate:9999-12-31</t>
   </si>
   <si>
     <t>TC_02</t>
@@ -150,6 +198,207 @@
   </si>
   <si>
     <t>Response_Geopl_ID:4942108503994332931Response_OrgStdNm:TestOrgResponse_StProvCd:TestSt6Response_stProvNm:TestProvNM6Response_effectiveDate:2020-06-12Response_expirationDate:2025-06-30</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify the StProvStd record with geopoliticalId ,countryCode ,stProvCd ,orgStdCd parameter with stProvCd, stProvNm, effectiveDate,expirationDate attributes</t>
+  </si>
+  <si>
+    <t>Response_StProvCd: TestSt6 Response_stProvNm: TestProvNM6 Response_effectiveDate: 2020-06-12 Response_expirationDate: 2025-06-30</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify the StProvStd record with targetDate, endDate  parameters with all the attributes</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify  no results fetched when passing stProvCd and invalid targetDate, endDate  parameters with all the attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"query":"
+	{
+		  stProvStds (geopoliticalId :\"\",
+		 targetDate :\"2040-45-12\",
+		 endDate :\"2040-45-30\") 
+		{
+			    geopoliticalId    organizationStandardCode    stateProvinceCode    stateProvinceName    effectiveDate    expirationDate  
+		}
+	}"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_geopoliticalId: 
+Input_stProvCd: Test_StCD
+Input_orgStdCd: 
+Input_countryCd: 
+Input_targetDate: 2040-45-12
+Input_endDate: 2040-45-30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+		]
+	},
+	"data":
+	{
+		"stProvStds":
+		[
+		]
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify no results fetched when passing the invalid orgStdCd parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"query":"
+	{
+		  stProvStds (geopoliticalId :\"\",
+		 countryCode :\"\",
+		 stProvCd :\"\",
+		 orgStdCd :\"ABC\",
+		 targetDate :\"NoTargetDate\",
+		 endDate :\"NoEndDate\") 
+		{
+			    geopoliticalId    organizationStandardCode    stateProvinceCode    stateProvinceName    effectiveDate    expirationDate  
+		}
+	}"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_geopoliticalId: 
+Input_stProvCd: 
+Input_orgStdCd: ABC
+Input_countryCd: 
+Input_targetDate: NoTargetDate
+Input_endDate: NoEndDate
+</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the invalid any one of the attribute name</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"timestamp":"2020-02-24T12:01:05.211Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'organizationStandardCode1' in type 'StateProvinceStandard' is undefined @ 'stProvStds/organizationStandardCode1'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the multiple(2 attributes) invalid attribute names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"timestamp":"2020-02-24T12:01:06.568Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'geopoliticalId1' in type 'StateProvinceStandard' is undefined @ 'stProvStds/geopoliticalId1'",
+				"path":null
+			},
+			{
+				"timestamp":"2020-02-24T12:01:06.568Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'organizationStandardCode1' in type 'StateProvinceStandard' is undefined @ 'stProvStds/organizationStandardCode1'",
+				"path":null
+			},
+			{
+				"timestamp":"2020-02-24T12:01:06.568Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'stateProvinceCode1' in type 'StateProvinceStandard' is undefined @ 'stProvStds/stateProvinceCode1'",
+				"path":null
+			},
+			{
+				"timestamp":"2020-02-24T12:01:06.568Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'stateProvinceName1' in type 'StateProvinceStandard' is undefined @ 'stProvStds/stateProvinceName1'",
+				"path":null
+			},
+			{
+				"timestamp":"2020-02-24T12:01:06.568Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'effectiveDate1' in type 'StateProvinceStandard' is undefined @ 'stProvStds/effectiveDate1'",
+				"path":null
+			},
+			{
+				"timestamp":"2020-02-24T12:01:06.568Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'expirationDate1' in type 'StateProvinceStandard' is undefined @ 'stProvStds/expirationDate1'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
   </si>
 </sst>
 </file>
@@ -157,7 +406,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="134">
+  <fonts count="288">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -830,6 +1079,776 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -898,7 +1917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1297,6 +2316,468 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1699,10 +3180,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="112">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s" s="113">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" t="s" s="115">
@@ -1714,18 +3195,20 @@
       <c r="F12" t="s" s="117">
         <v>14</v>
       </c>
-      <c r="G12" s="118"/>
+      <c r="G12" t="s" s="118">
+        <v>14</v>
+      </c>
       <c r="H12" t="s" s="119">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s" s="120">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s" s="121">
         <v>16</v>
       </c>
       <c r="K12" t="s" s="122">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L12"/>
     </row>
@@ -1734,7 +3217,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="124">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C13" s="125"/>
       <c r="D13" t="s" s="126">
@@ -1753,7 +3236,7 @@
         <v>14</v>
       </c>
       <c r="I13" t="s" s="131">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s" s="132">
         <v>16</v>
@@ -1762,6 +3245,468 @@
         <v>14</v>
       </c>
       <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>12</v>
+      </c>
+      <c r="C14" s="136"/>
+      <c r="D14" t="s" s="137">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>14</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>12</v>
+      </c>
+      <c r="C15" s="147"/>
+      <c r="D15" t="s" s="148">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>14</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>12</v>
+      </c>
+      <c r="C16" s="158"/>
+      <c r="D16" t="s" s="159">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>14</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>12</v>
+      </c>
+      <c r="C17" s="169"/>
+      <c r="D17" t="s" s="170">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>14</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>34</v>
+      </c>
+      <c r="C18" s="180"/>
+      <c r="D18" t="s" s="181">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>14</v>
+      </c>
+      <c r="G18" s="184"/>
+      <c r="H18" t="s" s="185">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>35</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="189">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s" s="190">
+        <v>34</v>
+      </c>
+      <c r="C19" s="191"/>
+      <c r="D19" t="s" s="192">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="194">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s" s="196">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s" s="197">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s" s="198">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s" s="199">
+        <v>14</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="200">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s" s="201">
+        <v>38</v>
+      </c>
+      <c r="C20" s="202"/>
+      <c r="D20" t="s" s="203">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="204">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="205">
+        <v>14</v>
+      </c>
+      <c r="G20" s="206"/>
+      <c r="H20" t="s" s="207">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s" s="208">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s" s="209">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s" s="210">
+        <v>35</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="211">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s" s="212">
+        <v>38</v>
+      </c>
+      <c r="C21" s="213"/>
+      <c r="D21" t="s" s="214">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="215">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s" s="216">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="217">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s" s="218">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s" s="219">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s" s="220">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s" s="221">
+        <v>14</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="C22" s="224"/>
+      <c r="D22" t="s" s="225">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="226">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s" s="227">
+        <v>14</v>
+      </c>
+      <c r="G22" s="228"/>
+      <c r="H22" t="s" s="229">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s" s="230">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s" s="231">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s" s="232">
+        <v>35</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="233">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="234">
+        <v>41</v>
+      </c>
+      <c r="C23" s="235"/>
+      <c r="D23" t="s" s="236">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s" s="237">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s" s="238">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="239">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s" s="240">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s" s="241">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s" s="242">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s" s="243">
+        <v>14</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="244">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s" s="245">
+        <v>43</v>
+      </c>
+      <c r="C24" s="246"/>
+      <c r="D24" t="s" s="247">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s" s="248">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s" s="249">
+        <v>13</v>
+      </c>
+      <c r="G24" s="250"/>
+      <c r="H24" t="s" s="251">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s" s="252">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s" s="253">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s" s="254">
+        <v>14</v>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="255">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s" s="256">
+        <v>48</v>
+      </c>
+      <c r="C25" s="257"/>
+      <c r="D25" t="s" s="258">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s" s="259">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s" s="260">
+        <v>13</v>
+      </c>
+      <c r="G25" s="261"/>
+      <c r="H25" t="s" s="262">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s" s="263">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s" s="264">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s" s="265">
+        <v>14</v>
+      </c>
+      <c r="L25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="266">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="267">
+        <v>52</v>
+      </c>
+      <c r="C26" s="268"/>
+      <c r="D26" t="s" s="269">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="270">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s" s="271">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="272">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s" s="273">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s" s="274">
+        <v>54</v>
+      </c>
+      <c r="J26" t="s" s="275">
+        <v>55</v>
+      </c>
+      <c r="K26" s="276"/>
+      <c r="L26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="277">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s" s="278">
+        <v>57</v>
+      </c>
+      <c r="C27" s="279"/>
+      <c r="D27" t="s" s="280">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="281">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s" s="282">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="283">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s" s="284">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s" s="285">
+        <v>58</v>
+      </c>
+      <c r="J27" t="s" s="286">
+        <v>55</v>
+      </c>
+      <c r="K27" s="287"/>
+      <c r="L27"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
